--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2497023.162412976</v>
+        <v>2494771.082701767</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9251752.890435591</v>
+        <v>9251752.890435593</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>92.72329049755537</v>
       </c>
       <c r="D2" t="n">
-        <v>46.27182779876098</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>47.55603294304689</v>
+        <v>258.2317318494232</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>253.8293786295319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316065</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>134.6311335666466</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>61.42978662487899</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="U8" t="n">
-        <v>156.4022100873323</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176199</v>
       </c>
       <c r="E13" t="n">
-        <v>7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>114.5157480654869</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.6605461321774</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.1642910616438</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887061</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>20.92847288552895</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>141.5017810206662</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
-        <v>25.52471385612597</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>54.10799870228453</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.678443125551</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1664.678443125551</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2003.169294996961</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>2003.169294996961</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>2003.169294996961</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>1855.256201414568</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193524</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>2996.053083281356</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>2741.368595075469</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>2451.951425038508</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>2223.961874140491</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>2003.169294996961</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2752.944093773487</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>669.4690763615329</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>500.532893433626</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>350.4162540212902</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>202.5031604388971</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>202.5031604388971</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>202.5031604388971</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1865.244258568413</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1865.244258568413</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1865.244258568413</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>851.1175411917726</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3057.333122745021</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2726.27023540145</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.501580131336</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>542.9134462654475</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654475</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.637427268805</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408981</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408981</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.244907039242</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.244907039242</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.16968038344</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177553</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140592</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242575</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990448</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,52 +6221,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,34 +6479,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944943</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>119.599202296584</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,16 +7494,16 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7597,22 +7597,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122182</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>149.8982754122182</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664504</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>66.51053793615772</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075384</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.42036229045101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788491</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>25.74504007796168</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796727.038137953</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813259</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-890115.4377022985</v>
       </c>
       <c r="C6" t="n">
-        <v>438629.3080252941</v>
+        <v>438629.3080252933</v>
       </c>
       <c r="D6" t="n">
-        <v>438629.3080252934</v>
+        <v>438629.3080252935</v>
       </c>
       <c r="E6" t="n">
-        <v>188446.5348417115</v>
+        <v>188411.7969162751</v>
       </c>
       <c r="F6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236304</v>
       </c>
       <c r="G6" t="n">
-        <v>513858.9966490664</v>
+        <v>513824.2587236309</v>
       </c>
       <c r="H6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="I6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="J6" t="n">
-        <v>296327.7942517888</v>
+        <v>296293.0563263535</v>
       </c>
       <c r="K6" t="n">
-        <v>513858.9966490667</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="L6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236306</v>
       </c>
       <c r="M6" t="n">
-        <v>428803.9687135547</v>
+        <v>428769.2307881187</v>
       </c>
       <c r="N6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236305</v>
       </c>
       <c r="O6" t="n">
-        <v>513858.9966490664</v>
+        <v>513824.2587236309</v>
       </c>
       <c r="P6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236307</v>
       </c>
     </row>
   </sheetData>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>272.5496012734522</v>
       </c>
       <c r="D2" t="n">
-        <v>308.411213821922</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>238.655805262566</v>
+        <v>27.98010635618965</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>73.92287984060303</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.698070624447</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>10.12388134767423</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>158.1191626512902</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047134</v>
       </c>
       <c r="U8" t="n">
-        <v>94.59296187156971</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.05658153010742e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>440.3163285600368</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>426.9501404413625</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>405.6377363145765</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.320803524584</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>270.4557004614704</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>535.8585467435948</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>209.2370040367367</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>627.2230337139555</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>604.7968300725072</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>152.1871379112071</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>302.4748895856778</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>295.6084283580291</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.3390294385625</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>136.4812930471402</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>393.2623022991504</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>71.39556506237767</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>207.1227774066596</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>488.6686539340813</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>462.2005856280628</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.34951124454042</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
